--- a/7 Visualizations/Visualizations - 3. Scatter Plot and Bubble Chart.xlsx
+++ b/7 Visualizations/Visualizations - 3. Scatter Plot and Bubble Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Analyst Builder\9.0 Excel for Data Analysis\8. Visualizations\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smcgb\excel-for-data-analysis\7 Visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04C4025-1230-49C3-BAF3-AF993E6647F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D70AB6C-A831-4971-891D-6B5D8B2F081F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scatter Plot" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Happiness Score</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>Men</t>
+  </si>
+  <si>
+    <t>R-Squared</t>
   </si>
 </sst>
 </file>
@@ -170,6 +173,3039 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Happiness Score Per Commute Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Scatter Plot'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Happiness Score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Scatter Plot'!$B$2:$B$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Scatter Plot'!$C$2:$C$105</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="104"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50B7-49D2-A118-F2198A43FD50}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="828783311"/>
+        <c:axId val="828785711"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="828783311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Commute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time (Hrs)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828785711"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="828785711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Happiness Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828783311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Chart Commute VS Happiness, Men</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>/Women</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:bubbleChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bubble Chart'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Men</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bubble Chart'!$B$3:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bubble Chart'!$C$3:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Bubble Chart'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A69E-4E41-B6BC-AA025D52FC84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Bubble Chart'!$E$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Women</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Bubble Chart'!$E$3:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Bubble Chart'!$F$3:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>'Bubble Chart'!$G$3:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A69E-4E41-B6BC-AA025D52FC84}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="1343642975"/>
+        <c:axId val="1343643935"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="1343642975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Hours Commute</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343643935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1343643935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Avg Happiness Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1343642975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C7F5BB-3186-7C9C-0C79-A9FEFE7CE405}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1034329</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98196</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1177C30E-E02E-24D2-6DA0-60F116329030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -435,15 +3471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD9AE2CD-D2AD-45BD-9717-E49FD6D28E05}">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -453,8 +3489,11 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -464,8 +3503,12 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <f>CORREL(B2:B105,C2:C105)</f>
+        <v>-0.89789196970761576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -476,7 +3519,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -487,7 +3530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -498,7 +3541,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -509,7 +3552,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -520,7 +3563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -531,7 +3574,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -542,7 +3585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -553,7 +3596,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -564,7 +3607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -575,7 +3618,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -586,7 +3629,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -597,7 +3640,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -608,7 +3651,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1605,6 +4648,7 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1612,8 +4656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA54B14-19CC-4BA9-AD53-E962266941D9}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="97" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:D8"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1889,5 +4933,6 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>